--- a/Colocalisation_Workshop_Data/Demos/Demo 1/Demo1.xlsx
+++ b/Colocalisation_Workshop_Data/Demos/Demo 1/Demo1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thefranciscrickinstitute-my.sharepoint.com/personal/barryd_crick_ac_uk/Documents/Training/Colocalisation Workshop/Colocalisation_Workshop_Data/Demos/Demo 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{2512F339-41E3-4366-B2A6-CF8E4BAE501A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{2512F339-41E3-4366-B2A6-CF8E4BAE501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,64 +252,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>236</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>74</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>248</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>235</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -321,64 +321,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>189</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>147</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>199</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>245</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>209</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>254</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>243</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -754,64 +754,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>127</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>247</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>119</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>132</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>115</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>125</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>108</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>117</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>154</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,64 +823,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>208</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>248</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>208</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>155</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>214</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>116</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>171</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>187</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>229</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>184</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2618,7 +2618,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,201 +2642,201 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f ca="1">RANDBETWEEN(0,255)</f>
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">A2 + RANDBETWEEN(-10,10)</f>
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A21" ca="1" si="0">RANDBETWEEN(0,255)</f>
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B21" ca="1" si="1">A3 + RANDBETWEEN(-10,10)</f>
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>205</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>199</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>254</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30.75" x14ac:dyDescent="0.55000000000000004">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D26" s="2">
         <f ca="1">CORREL(A2:A21,B2:B21)</f>
-        <v>0.99730769847114065</v>
+        <v>0.99883642417978391</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -2889,201 +2889,201 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(0,255)</f>
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B21" ca="1" si="0">RANDBETWEEN(0,255)</f>
-        <v>208</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A21" ca="1" si="1">RANDBETWEEN(0,255)</f>
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>214</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>229</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30.75" x14ac:dyDescent="0.55000000000000004">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="D26" s="2">
         <f ca="1">CORREL(A2:A21,B2:B21)</f>
-        <v>0.40709899146079659</v>
+        <v>0.34429030551198064</v>
       </c>
       <c r="E26" s="1"/>
     </row>
